--- a/src/test/resources/addselection/addSelection.xlsx
+++ b/src/test/resources/addselection/addSelection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\addselection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66616E1-C8EA-42FC-A165-15BD9AE9141D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE80B1A-0BFA-4E39-8860-15A4A556EE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>open</t>
   </si>
   <si>
-    <t>setWindowSize</t>
-  </si>
-  <si>
     <t>945x1012</t>
   </si>
   <si>
@@ -43,10 +40,6 @@
     <t>${KEY_ENTER}</t>
   </si>
   <si>
-    <t>json</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>readProperties</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -63,21 +56,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\xihu_\Desktop\2.json</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://task.hugang.io/login</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id=username</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://task.hugang.io/issues/1</t>
-  </si>
-  <si>
     <t>click</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -90,12 +72,66 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${company3}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>xpath</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
@@ -106,19 +142,548 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${company1}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${company2}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${company3}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>wait</t>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"file"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"C:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0037A6"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0037A6"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>xihu_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0037A6"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Desktop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0037A6"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2.json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"url"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"https://task.hugang.io/login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"skip"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"skip"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0033B3"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"url"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"https://task.hugang.io/issues/1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setWindowSize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"${company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"option"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"${company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"xpath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>//*[@id='issue_custom_field_values_31']"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -126,7 +691,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -142,34 +707,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FF080808"/>
+      <name val="Sarasa Mono CL"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF871094"/>
+      <name val="Sarasa Mono CL"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF067D17"/>
+      <name val="Sarasa Mono CL"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0037A6"/>
+      <name val="Sarasa Mono CL"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0033B3"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF067D17"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF871094"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,11 +795,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -216,30 +804,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,149 +1142,142 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="27.375" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
+    <col min="13" max="13" width="6.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="68.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="J2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="7">
+        <v>14</v>
+      </c>
+      <c r="M3" s="3">
         <v>2000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D2D44D75-9706-4068-9E9A-16731AF950C6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>